--- a/3.mapping-space/students/pm/mio/data/concept_test.xlsx
+++ b/3.mapping-space/students/pm/mio/data/concept_test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="17920" yWindow="640" windowWidth="28160" windowHeight="16740" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="14160" yWindow="1260" windowWidth="28160" windowHeight="16740" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Depth_mag_graph" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="64">
   <si>
     <t>id</t>
   </si>
@@ -133,6 +133,93 @@
   </si>
   <si>
     <t>Mediterranean Sea</t>
+  </si>
+  <si>
+    <t>reference</t>
+  </si>
+  <si>
+    <t>Top right</t>
+  </si>
+  <si>
+    <t>Bottom right</t>
+  </si>
+  <si>
+    <t>Bottom left</t>
+  </si>
+  <si>
+    <t>Top left (lat, long)</t>
+  </si>
+  <si>
+    <t>(24, 96)</t>
+  </si>
+  <si>
+    <t>(24, 56)</t>
+  </si>
+  <si>
+    <t>(-3, 56)</t>
+  </si>
+  <si>
+    <t>(-3, 96)</t>
+  </si>
+  <si>
+    <t>(45, 114)</t>
+  </si>
+  <si>
+    <t>(45, 152)</t>
+  </si>
+  <si>
+    <t>(21, 147)</t>
+  </si>
+  <si>
+    <t>(21, 118)</t>
+  </si>
+  <si>
+    <t>(62, 161)</t>
+  </si>
+  <si>
+    <t>(62, 140)</t>
+  </si>
+  <si>
+    <t>(46, 150)</t>
+  </si>
+  <si>
+    <t>(47, 170)</t>
+  </si>
+  <si>
+    <t>(55, 132)</t>
+  </si>
+  <si>
+    <t>(56, 169)</t>
+  </si>
+  <si>
+    <t>(38, 164)</t>
+  </si>
+  <si>
+    <t>(38, 139)</t>
+  </si>
+  <si>
+    <t>(14, 91)</t>
+  </si>
+  <si>
+    <t>(E 175, 9)</t>
+  </si>
+  <si>
+    <t>(49, 152)</t>
+  </si>
+  <si>
+    <t>(46, 65)</t>
+  </si>
+  <si>
+    <t>(35, 123)</t>
+  </si>
+  <si>
+    <t>(35, 81)</t>
+  </si>
+  <si>
+    <t>(81, 10)</t>
+  </si>
+  <si>
+    <t>(10, 123)</t>
   </si>
 </sst>
 </file>
@@ -148,12 +235,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -168,8 +261,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -199,6 +293,42 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US">
+                <a:latin typeface="Helvetica" charset="0"/>
+                <a:ea typeface="Helvetica" charset="0"/>
+                <a:cs typeface="Helvetica" charset="0"/>
+              </a:rPr>
+              <a:t>Earthquakes: depth &amp;</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0">
+                <a:latin typeface="Helvetica" charset="0"/>
+                <a:ea typeface="Helvetica" charset="0"/>
+                <a:cs typeface="Helvetica" charset="0"/>
+              </a:rPr>
+              <a:t> mag</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -263,11 +393,151 @@
             </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:alpha val="18000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:alpha val="18000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="15"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:alpha val="18000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="16"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:alpha val="18000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="17"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:alpha val="18000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="18"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:alpha val="18000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="19"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:alpha val="18000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
           <c:xVal>
             <c:strRef>
-              <c:f>Depth_mag_graph!$B$2:$B$14</c:f>
+              <c:f>Depth_mag_graph!$B$2:$B$21</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>2018-10-22T06:22:48.810Z</c:v>
                 </c:pt>
@@ -305,6 +575,27 @@
                   <c:v>2018-09-30T10:52:24.240Z</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>2018-09-28T10:02:43.480Z</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2018-10-10T23:16:02.130Z</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2018-10-10T20:48:20.750Z</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2018-10-10T18:44:55.280Z</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2018-10-07T00:11:51.220Z</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2018-09-30T10:52:24.240Z</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2018-09-28T10:02:43.480Z</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>2018-09-28T10:02:43.480Z</c:v>
                 </c:pt>
               </c:strCache>
@@ -312,10 +603,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Depth_mag_graph!$C$2:$C$14</c:f>
+              <c:f>Depth_mag_graph!$C$2:$C$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>-10.0</c:v>
                 </c:pt>
@@ -354,16 +645,37 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>-10.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-10.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-50.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-100.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-200.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-300.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-400.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-500.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:bubbleSize>
             <c:numRef>
-              <c:f>Depth_mag_graph!$D$2:$D$14</c:f>
+              <c:f>Depth_mag_graph!$D$2:$D$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>6.5</c:v>
                 </c:pt>
@@ -402,6 +714,27 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -425,6 +758,7 @@
         <c:axId val="1646729792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -480,9 +814,9 @@
                     <a:lumMod val="75000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:latin typeface="Helvetica" charset="0"/>
+                <a:ea typeface="Helvetica" charset="0"/>
+                <a:cs typeface="Helvetica" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -525,6 +859,65 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Depth</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (km)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -551,9 +944,9 @@
                     <a:lumMod val="75000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:latin typeface="Helvetica" charset="0"/>
+                <a:ea typeface="Helvetica" charset="0"/>
+                <a:cs typeface="Helvetica" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -571,37 +964,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1274,16 +1636,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>196850</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>82549</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>16933</xdr:rowOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>16933</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>33867</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1568,10 +1930,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="87" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="Q26" sqref="Q26"/>
+    <sheetView topLeftCell="F1" zoomScale="58" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="AI44" sqref="AI44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1775,6 +2137,109 @@
         <v>7.5</v>
       </c>
     </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="1">
+        <v>-10</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="1">
+        <v>-50</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="1">
+        <v>-100</v>
+      </c>
+      <c r="D17" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="1">
+        <v>-200</v>
+      </c>
+      <c r="D18" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="1">
+        <v>-300</v>
+      </c>
+      <c r="D19" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="1">
+        <v>-400</v>
+      </c>
+      <c r="D20" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="1">
+        <v>-500</v>
+      </c>
+      <c r="D21" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B29" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1783,10 +2248,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A18"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1794,82 +2259,166 @@
     <col min="1" max="1" width="40.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>32</v>
       </c>

--- a/3.mapping-space/students/pm/mio/data/concept_test.xlsx
+++ b/3.mapping-space/students/pm/mio/data/concept_test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14160" yWindow="1260" windowWidth="28160" windowHeight="16740" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="780" yWindow="1020" windowWidth="28160" windowHeight="16740" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Depth_mag_graph" sheetId="1" r:id="rId1"/>
